--- a/Transavia/Production/Results/Results_daily_F4.xlsx
+++ b/Transavia/Production/Results/Results_daily_F4.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>0.001273404806852341</v>
+        <v>0.01822211407124996</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.001202973420731723</v>
+        <v>0.002105879597365856</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.000642721657641232</v>
+        <v>0.0002197848225478083</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.141171857714653</v>
+        <v>0.0004026250971946865</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.166995644569397</v>
+        <v>0.0004214474174659699</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.1725538820028305</v>
+        <v>0.0002461431722622365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1605762988328934</v>
+        <v>0.0002102897706208751</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1449160277843475</v>
+        <v>0.0002278734900755808</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.1450075060129166</v>
+        <v>0.0002343457599636167</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.1157742366194725</v>
+        <v>0.0002343457599636167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.0604468546807766</v>
+        <v>0.0002343457599636167</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.04326771199703217</v>
+        <v>0.001927540288306773</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.006251671351492405</v>
+        <v>0.03376930952072144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0.0001402655034326017</v>
+        <v>0.09502632170915604</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0.0001441137283109128</v>
+        <v>0.1452946960926056</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0.000150935840792954</v>
+        <v>0.1594113856554031</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0.000150935840792954</v>
+        <v>0.1744017601013184</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.0001242218277184293</v>
+        <v>0.1772942095994949</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>-0.0001983026013476774</v>
+        <v>0.1543034464120865</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.0005521110724657774</v>
+        <v>0.1308882683515549</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0.001727975439280272</v>
+        <v>0.104431688785553</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>0.001432635355740786</v>
+        <v>0.06483065336942673</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.006066275294870138</v>
+        <v>0.03289391472935677</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0.03883180767297745</v>
+        <v>0.02138847671449184</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0.08561821281909943</v>
+        <v>0.006518787704408169</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>0.1222630366683006</v>
+        <v>0.001277623348869383</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0.1385727822780609</v>
+        <v>0.0002273062855238095</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.1379228532314301</v>
+        <v>0.000221862064790912</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.1669088453054428</v>
+        <v>0.000221862064790912</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.1711340695619583</v>
+        <v>0.0002174237743020058</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.1606526374816895</v>
+        <v>9.903722093440592E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.13529372215271</v>
+        <v>9.903722093440592E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.1312846094369888</v>
+        <v>7.574754999950528E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0.09441916644573212</v>
+        <v>7.371752144536003E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.04934259131550789</v>
+        <v>7.1868380473461E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.02998119033873081</v>
+        <v>0.001555038150399923</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.004305574111640453</v>
+        <v>0.0228742565959692</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.0001143016561400145</v>
+        <v>0.06053297221660614</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.0001587338920217007</v>
+        <v>0.07571013271808624</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>0.0001587338920217007</v>
+        <v>0.1064190864562988</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.000174079614225775</v>
+        <v>0.1298284381628036</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>0.0001065090109477751</v>
+        <v>0.1459591835737228</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>-0.0002149377978639677</v>
+        <v>0.1441215872764587</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>1.043829070113134E-05</v>
+        <v>0.1538915932178497</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>0.00149548752233386</v>
+        <v>0.1467417031526566</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>0.001224608160555363</v>
+        <v>0.1111075654625893</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.002555239014327526</v>
+        <v>0.06939356029033661</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.02219492383301258</v>
+        <v>0.04201849177479744</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0.05334922671318054</v>
+        <v>0.0136571116745472</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>0.08406530320644379</v>
+        <v>0.003128785872831941</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>0.1006258279085159</v>
+        <v>0.0002120359713444486</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0.1019767299294472</v>
+        <v>0.0002148951316485181</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>0.1360635012388229</v>
+        <v>0.0002117305848514661</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>0.1374666541814804</v>
+        <v>0.0002117305848514661</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.1407039016485214</v>
+        <v>6.956714787520468E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.1262952536344528</v>
+        <v>7.363760232692584E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.1005268469452858</v>
+        <v>7.832796836737543E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.06762351095676422</v>
+        <v>9.294717892771587E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.04493946954607964</v>
+        <v>7.958815695019439E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.03116784244775772</v>
+        <v>0.003149831900373101</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.003211773699149489</v>
+        <v>0.04100125283002853</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>0.0001256497926078737</v>
+        <v>0.1002530306577682</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0.0001485448447056115</v>
+        <v>0.1357269883155823</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>0.0001146647773566656</v>
+        <v>0.1662280261516571</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>0.0001165555368061177</v>
+        <v>0.2021912336349487</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>9.66903826338239E-05</v>
+        <v>0.2171341329813004</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>-2.933955875050742E-05</v>
+        <v>0.2067747861146927</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>0.0004617517406586558</v>
+        <v>0.1977190226316452</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>0.001655990839935839</v>
+        <v>0.1730015128850937</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>0.001637254492379725</v>
+        <v>0.127633810043335</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.004415088798850775</v>
+        <v>0.1233629956841469</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0.03149957582354546</v>
+        <v>0.05045191943645477</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.07578642666339874</v>
+        <v>0.04029921814799309</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>0.1164338737726212</v>
+        <v>0.00464928150177002</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>0.1393987685441971</v>
+        <v>0.0002250054822070524</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>0.1246612071990967</v>
+        <v>0.0002149876381736249</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>0.1591699570417404</v>
+        <v>0.0002149876381736249</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>0.1593343913555145</v>
+        <v>0.000217839638935402</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.147185429930687</v>
+        <v>8.607686322648078E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.1359705328941345</v>
+        <v>8.607686322648078E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.1318216919898987</v>
+        <v>8.607686322648078E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.08334249258041382</v>
+        <v>8.867411816027015E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.04796318709850311</v>
+        <v>8.867411816027015E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.03028073906898499</v>
+        <v>0.004305302631109953</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.003258551470935345</v>
+        <v>0.04982946068048477</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.0001587338920217007</v>
+        <v>0.1035288721323013</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>0.000174079614225775</v>
+        <v>0.1721361577510834</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>0.0001372933620586991</v>
+        <v>0.188340499997139</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>0.0001372933620586991</v>
+        <v>0.2110028266906738</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>0.0001144276393461041</v>
+        <v>0.2170651406049728</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>-0.0002070192276732996</v>
+        <v>0.2119183093309402</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>0.0003503907937556505</v>
+        <v>0.1984982043504715</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>0.001529139815829694</v>
+        <v>0.1678572744131088</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>0.001521043246611953</v>
+        <v>0.1205106526613235</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0.004572322592139244</v>
+        <v>0.08062700927257538</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0.03518218919634819</v>
+        <v>0.04809468239545822</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>0.08090497553348541</v>
+        <v>0.01781632751226425</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>0.1186489015817642</v>
+        <v>0.003908476792275906</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>0.1422923058271408</v>
+        <v>0.000417377072153613</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0.1334474384784698</v>
+        <v>0.000417377072153613</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.1585519164800644</v>
+        <v>0.0002616338024381548</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>0.1502149999141693</v>
+        <v>0.0002616338024381548</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.1345886439085007</v>
+        <v>0.000217587614315562</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.1324171274900436</v>
+        <v>7.564681436633691E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.1176694259047508</v>
+        <v>7.971726881805807E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.06854262948036194</v>
+        <v>7.971726881805807E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.04524980112910271</v>
+        <v>7.971726881805807E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.0289202407002449</v>
+        <v>0.003526628250256181</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.002430711407214403</v>
+        <v>0.03965223953127861</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>0.000101884339528624</v>
+        <v>0.09873593598604202</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.0001416103914380074</v>
+        <v>0.1424069851636887</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0.0001507088891230524</v>
+        <v>0.1642961651086807</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0.0001587338920217007</v>
+        <v>0.2128279507160187</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.0001472948642913252</v>
+        <v>0.2160754501819611</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>-0.0001742968161124736</v>
+        <v>0.2068271040916443</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>0.0001736135018290952</v>
+        <v>0.1888890415430069</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>0.001451172400265932</v>
+        <v>0.1617894023656845</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>0.001455541234463453</v>
+        <v>0.1014972850680351</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0.004452278837561607</v>
+        <v>0.06571606546640396</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0.03509137779474258</v>
+        <v>0.04316879436373711</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>0.08383720368146896</v>
+        <v>0.01967706717550755</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>0.1186444908380508</v>
+        <v>0.003019067924469709</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0.1390421539545059</v>
+        <v>0.0001869631960289553</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>0.1332088559865952</v>
+        <v>0.0001846509840106592</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>0.1600204110145569</v>
+        <v>0.0003985547518823296</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>0.1688878387212753</v>
+        <v>0.0003985547518823296</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.1622771471738815</v>
+        <v>0.0001107426505768672</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.1462012678384781</v>
+        <v>0.0001130548916989937</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0.1435637325048447</v>
+        <v>8.654950943309814E-05</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0.1085959225893021</v>
+        <v>8.654950943309814E-05</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.05567461997270584</v>
+        <v>8.654950943309814E-05</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>0.02893728949129581</v>
+        <v>0.003163072280585766</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.004283948801457882</v>
+        <v>0.03257749229669571</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>0.0001615383662283421</v>
+        <v>0.08546352386474609</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.0001882130454760045</v>
+        <v>0.1250691711902618</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>0.0001120427623391151</v>
+        <v>0.168565034866333</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0.0001120427623391151</v>
+        <v>0.1865813732147217</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0.0001370110257994384</v>
+        <v>0.1983163207769394</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>-0.0002624417247716337</v>
+        <v>0.1947178542613983</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.0003366439486853778</v>
+        <v>0.1876966059207916</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.001452591153793037</v>
+        <v>0.1650928854942322</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>0.001451693009585142</v>
+        <v>0.113075390458107</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0.004552647937089205</v>
+        <v>0.08227864652872086</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0.03542283177375793</v>
+        <v>0.03941843286156654</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>0.08271370828151703</v>
+        <v>0.01886354573071003</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>0.1177493929862976</v>
+        <v>0.002912277821451426</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0.1300321072340012</v>
+        <v>0.0001657460670685396</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>0.1323753297328949</v>
+        <v>0.0001657460670685396</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>0.1583451330661774</v>
+        <v>0.0001657460670685396</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>0.1685425639152527</v>
+        <v>0.000159654431627132</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0.162227600812912</v>
+        <v>0.0001233156363014132</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>0.1461824327707291</v>
+        <v>0.0001022299693431705</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>0.1429097354412079</v>
+        <v>0.0001198137179017067</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>0.1086087971925735</v>
+        <v>9.330832835985348E-05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.05909701436758041</v>
+        <v>0.000128041225252673</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.02881347015500069</v>
+        <v>0.006234289146959782</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.003394980449229479</v>
+        <v>0.05057188495993614</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>0.0002017114893533289</v>
+        <v>0.1166341081261635</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>0.0001105249393731356</v>
+        <v>0.1652926355600357</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0.0001052031293511391</v>
+        <v>0.2005410194396973</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.0001416103914380074</v>
+        <v>0.2194081544876099</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.0001364382333122194</v>
+        <v>0.2242455333471298</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>-0.000190639664651826</v>
+        <v>0.2152411341667175</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0.0001673839869908988</v>
+        <v>0.2004165053367615</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>0.001284149358980358</v>
+        <v>0.1713062226772308</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>0.001275686430744827</v>
+        <v>0.1170281693339348</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0.002495371270924807</v>
+        <v>0.1025525778532028</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.02943539060652256</v>
+        <v>0.04340773075819016</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.07374256104230881</v>
+        <v>0.03130314126610756</v>
       </c>
     </row>
   </sheetData>
